--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/24/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/24/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4754754754754755</v>
+        <v>0.05390539053905391</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>490.4904904904905</v>
+        <v>586.8286828682869</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09379379379379379</v>
+        <v>0.09208920892089209</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0960960960960961</v>
+        <v>0.4751475147514752</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>916.916916916917</v>
+        <v>1106.530653065307</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.06306306306307</v>
+        <v>240.2340234023402</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.2072072072072</v>
+        <v>252.8730873087308</v>
       </c>
     </row>
   </sheetData>
